--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1150878.819793199</v>
+        <v>1176242.079644568</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453901</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.119178668</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8095209.199048364</v>
+        <v>8581755.378940554</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>290.8147887108503</v>
+        <v>398.6248860420494</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +867,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>32.39438158624714</v>
+        <v>222.8518036106195</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>51.14793220147189</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>332.4366236339536</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>102.1833446116465</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>140.3188513312182</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>216.3773186342595</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -1190,7 +1192,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>73.70455831056218</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>25.47589990595243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1384,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>8.924297638202884</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.42520756919171</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>8.924297638202884</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1846,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1895,7 +1897,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>183.5236380974013</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>123.4663257560838</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>154.5657585244569</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>31.42227043795242</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>62.68223391146829</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>248.9925180568699</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>351.2228221674562</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2333,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>95.52623915674781</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>28.0149076090946</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2557,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>351.957370161717</v>
       </c>
       <c r="D26" t="n">
-        <v>351.2228221674562</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2570,10 +2572,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>160.8012767319978</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>59.78186949969471</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2779,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,10 +2803,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -2843,10 +2845,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2953,10 +2955,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>153.0251390105131</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>356.9224994274309</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>128.7560630900389</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,22 +3237,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>160.3562652764835</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3266,7 +3268,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3281,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>49.02746394088949</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>34.2910877924431</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>96.07643038288654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3517,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>355.4445328256823</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>47.64512042712315</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>235.1382086133204</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>13.88126300749902</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>369.6581867526364</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3758,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>93.830480902809</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3898,19 +3900,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.2813202901602</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>161.6218091235291</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.4608029423623</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>356.8268763394486</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3986,10 +3988,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>159.3854280103019</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>136.5944971468583</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4192,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1983.216429675424</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C2" t="n">
-        <v>1573.091838988694</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D2" t="n">
-        <v>1168.627909081755</v>
+        <v>863.4445812219433</v>
       </c>
       <c r="E2" t="n">
-        <v>1158.328097639056</v>
+        <v>449.10436573884</v>
       </c>
       <c r="F2" t="n">
-        <v>864.5757858099139</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>455.8475017027461</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>144.9390043304641</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>237.5797538689247</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>950.1711536811628</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>1675.188269069436</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N2" t="n">
-        <v>2400.205384457709</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O2" t="n">
-        <v>2400.205384457709</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P2" t="n">
-        <v>2929.36208237686</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2794.081007170961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2794.081007170961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2794.081007170961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>2794.081007170961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>2794.081007170961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>2393.437609339914</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>2393.437609339914</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>150.083045991581</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>58.5872416475372</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>58.5872416475372</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>460.0094704169994</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>460.0094704169994</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>460.0094704169994</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="O3" t="n">
-        <v>1163.966560962894</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="P3" t="n">
-        <v>1725.672453451424</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2075.516918135407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.1946968420806</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="C4" t="n">
-        <v>208.1946968420806</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="D4" t="n">
-        <v>208.1946968420806</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>208.1946968420806</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>208.1946968420806</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>208.1946968420806</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>58.5872416475372</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1502.713419943787</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1502.713419943787</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1469.991822381921</v>
+        <v>1074.396663875843</v>
       </c>
       <c r="U4" t="n">
-        <v>1187.193674928045</v>
+        <v>1074.396663875843</v>
       </c>
       <c r="V4" t="n">
-        <v>913.3079298675673</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="W4" t="n">
-        <v>634.2382653764416</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="X4" t="n">
-        <v>395.894403236125</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="Y4" t="n">
-        <v>395.894403236125</v>
+        <v>800.5109188153651</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2203.626436560717</v>
+        <v>518.9654716736151</v>
       </c>
       <c r="C5" t="n">
-        <v>1793.501845873987</v>
+        <v>108.8408809868852</v>
       </c>
       <c r="D5" t="n">
-        <v>1389.037915967048</v>
+        <v>108.4173551203498</v>
       </c>
       <c r="E5" t="n">
-        <v>974.6977004839443</v>
+        <v>98.11754367765053</v>
       </c>
       <c r="F5" t="n">
-        <v>553.6672884376319</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>144.9390043304641</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>144.9390043304641</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>596.7467427565767</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L5" t="n">
-        <v>1309.338142568815</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M5" t="n">
-        <v>2034.355257957088</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N5" t="n">
-        <v>2759.372373345361</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O5" t="n">
-        <v>2759.372373345361</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>2888.805436687295</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2888.805436687295</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2929.36208237686</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2929.36208237686</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>2593.567513049634</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.807212184803</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X5" t="n">
-        <v>2209.807212184803</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="Y5" t="n">
-        <v>2209.807212184803</v>
+        <v>929.1866513381045</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>58.5872416475372</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>58.5872416475372</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>676.1022315638701</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N6" t="n">
-        <v>1401.119346952143</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O6" t="n">
-        <v>2105.076437498037</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>656.4222597016197</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>656.4222597016197</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>656.4222597016197</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>656.4222597016197</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>491.791133812211</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>324.5407427377544</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>174.9332875432111</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1502.713419943787</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1316.321651823697</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1316.321651823697</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1033.523504369821</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>759.6377593093434</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>759.6377593093434</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>656.4222597016197</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>656.4222597016197</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>719.2524799650521</v>
+        <v>2144.705157697622</v>
       </c>
       <c r="C8" t="n">
-        <v>309.1278892783222</v>
+        <v>1734.580567010892</v>
       </c>
       <c r="D8" t="n">
-        <v>90.56494116290857</v>
+        <v>1330.116637103952</v>
       </c>
       <c r="E8" t="n">
-        <v>80.26512972020933</v>
+        <v>915.7764216208491</v>
       </c>
       <c r="F8" t="n">
-        <v>63.27512171430095</v>
+        <v>494.7460095745366</v>
       </c>
       <c r="G8" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>312.7727131152915</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>312.7727131152915</v>
+        <v>624.1772265764083</v>
       </c>
       <c r="L8" t="n">
-        <v>312.7727131152915</v>
+        <v>1336.768626388646</v>
       </c>
       <c r="M8" t="n">
-        <v>1031.557412652331</v>
+        <v>2113.0872173804</v>
       </c>
       <c r="N8" t="n">
-        <v>1756.574528040604</v>
+        <v>2866.268234019018</v>
       </c>
       <c r="O8" t="n">
-        <v>2400.205384457709</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>2794.081007170961</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="T8" t="n">
-        <v>2571.87452311782</v>
+        <v>4078.679789315297</v>
       </c>
       <c r="U8" t="n">
-        <v>2314.81403137733</v>
+        <v>3821.619297574807</v>
       </c>
       <c r="V8" t="n">
-        <v>2314.81403137733</v>
+        <v>3471.781742911288</v>
       </c>
       <c r="W8" t="n">
-        <v>1931.053730512499</v>
+        <v>3088.021442046456</v>
       </c>
       <c r="X8" t="n">
-        <v>1530.410332681451</v>
+        <v>2687.378044215409</v>
       </c>
       <c r="Y8" t="n">
-        <v>1129.473659629542</v>
+        <v>2286.441371163499</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>514.3934979128359</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>1175.481669832124</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="M9" t="n">
-        <v>1175.481669832124</v>
+        <v>928.9948061619355</v>
       </c>
       <c r="N9" t="n">
-        <v>1175.481669832124</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="O9" t="n">
-        <v>1543.370545009507</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>489.1718686271631</v>
+        <v>253.2681165418253</v>
       </c>
       <c r="C10" t="n">
-        <v>489.1718686271631</v>
+        <v>253.2681165418253</v>
       </c>
       <c r="D10" t="n">
-        <v>489.1718686271631</v>
+        <v>253.2681165418253</v>
       </c>
       <c r="E10" t="n">
-        <v>489.1718686271631</v>
+        <v>253.2681165418253</v>
       </c>
       <c r="F10" t="n">
-        <v>324.5407427377544</v>
+        <v>253.2681165418253</v>
       </c>
       <c r="G10" t="n">
-        <v>324.5407427377544</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1316.321651823697</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1076.772912800399</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="U10" t="n">
-        <v>793.9747653465236</v>
+        <v>1269.303086844981</v>
       </c>
       <c r="V10" t="n">
-        <v>793.9747653465236</v>
+        <v>995.4173417845029</v>
       </c>
       <c r="W10" t="n">
-        <v>514.9051008553979</v>
+        <v>716.3476772933773</v>
       </c>
       <c r="X10" t="n">
-        <v>489.1718686271631</v>
+        <v>478.0038151530607</v>
       </c>
       <c r="Y10" t="n">
-        <v>489.1718686271631</v>
+        <v>253.2681165418253</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1708.546389770622</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>1298.421799083892</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>893.957869176953</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>479.6176536938497</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>58.5872416475372</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K11" t="n">
-        <v>596.7467427565767</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
-        <v>1309.338142568815</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>2034.355257957088</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2759.372373345361</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2929.36208237686</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U11" t="n">
-        <v>2929.36208237686</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V11" t="n">
-        <v>2929.36208237686</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W11" t="n">
-        <v>2920.347640318069</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X11" t="n">
-        <v>2519.704242487022</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y11" t="n">
-        <v>2118.767569435112</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>178.3252825443246</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>839.4134544636129</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>839.4134544636129</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N12" t="n">
-        <v>839.4134544636129</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O12" t="n">
-        <v>1543.370545009507</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241.0193557949199</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>241.0193557949199</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>241.0193557949199</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>241.0193557949199</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>241.0193557949199</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>241.0193557949199</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>174.9332875432111</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.321651823697</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1076.772912800399</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U13" t="n">
-        <v>793.9747653465236</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V13" t="n">
-        <v>520.0890202860455</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W13" t="n">
-        <v>241.0193557949199</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X13" t="n">
-        <v>241.0193557949199</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y13" t="n">
-        <v>241.0193557949199</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1708.546389770622</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>1298.421799083892</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>893.957869176953</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>479.6176536938497</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>58.5872416475372</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K14" t="n">
-        <v>596.7467427565767</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
-        <v>1309.338142568815</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2034.355257957088</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2359.648738768144</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2359.648738768144</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2888.805436687295</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>2888.805436687295</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V14" t="n">
-        <v>2929.36208237686</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W14" t="n">
-        <v>2920.347640318069</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>2519.704242487022</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2118.767569435112</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>251.4000992101705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>251.4000992101705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>912.4882711294587</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>1543.370545009507</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N15" t="n">
-        <v>1543.370545009507</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O15" t="n">
-        <v>1543.370545009507</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.921091948674</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>976.8277195103904</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>817.3330748333003</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>656.4222597016197</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>491.791133812211</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>324.5407427377544</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>174.9332875432111</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1587.986138268387</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1587.986138268387</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1587.986138268387</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>1587.986138268387</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.986138268387</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.986138268387</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X16" t="n">
-        <v>1560.356496953953</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y16" t="n">
-        <v>1335.620798342718</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E17" t="n">
         <v>1320.262653899312</v>
@@ -5543,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4341.526397105643</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4084.465905365153</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3734.628350701634</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3350.868049836802</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>2950.224652005755</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2549.287978953845</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5597,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>548.5451751656769</v>
+        <v>851.048725921115</v>
       </c>
       <c r="C19" t="n">
-        <v>377.4518027273934</v>
+        <v>679.9553534828315</v>
       </c>
       <c r="D19" t="n">
-        <v>217.9571580503035</v>
+        <v>679.9553534828315</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>679.9553534828315</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>515.3242275934227</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U19" t="n">
-        <v>1339.844446857597</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V19" t="n">
-        <v>1065.958701797119</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="W19" t="n">
-        <v>786.8890373059935</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="X19" t="n">
-        <v>548.5451751656769</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="Y19" t="n">
-        <v>548.5451751656769</v>
+        <v>1038.748432315159</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2494.579294402201</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.454703715471</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D20" t="n">
-        <v>1679.990773808531</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E20" t="n">
-        <v>1265.650558325428</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F20" t="n">
-        <v>844.6201462791155</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G20" t="n">
-        <v>435.8918621719477</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
-        <v>124.9833647996657</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U20" t="n">
-        <v>4439.978400477999</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V20" t="n">
-        <v>4090.140845814479</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W20" t="n">
-        <v>3706.380544949648</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X20" t="n">
-        <v>3305.7371471186</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y20" t="n">
-        <v>2904.80047406669</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>586.0360297861687</v>
+        <v>3300.036378984746</v>
       </c>
       <c r="C22" t="n">
-        <v>586.0360297861687</v>
+        <v>3300.036378984746</v>
       </c>
       <c r="D22" t="n">
-        <v>586.0360297861687</v>
+        <v>3300.036378984746</v>
       </c>
       <c r="E22" t="n">
-        <v>425.1252146544881</v>
+        <v>3300.036378984746</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>3300.036378984746</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U22" t="n">
-        <v>859.9217748466467</v>
+        <v>4379.386737077264</v>
       </c>
       <c r="V22" t="n">
-        <v>586.0360297861687</v>
+        <v>4105.500992016786</v>
       </c>
       <c r="W22" t="n">
-        <v>586.0360297861687</v>
+        <v>3826.43132752566</v>
       </c>
       <c r="X22" t="n">
-        <v>586.0360297861687</v>
+        <v>3588.087465385343</v>
       </c>
       <c r="Y22" t="n">
-        <v>586.0360297861687</v>
+        <v>3363.351766774108</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.342609327206</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E23" t="n">
-        <v>923.0023938441032</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F23" t="n">
-        <v>501.9719817977906</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C24" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D24" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E24" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F24" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G24" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H24" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S24" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T24" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U24" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V24" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W24" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X24" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y24" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3788.915946046752</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="C25" t="n">
-        <v>3617.822573608469</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="D25" t="n">
-        <v>3458.327928931379</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="E25" t="n">
-        <v>3297.417113799698</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
         <v>3132.785987910289</v>
@@ -6172,25 +6174,25 @@
         <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>4576.912166206539</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>4576.912166206539</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>4576.912166206539</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V25" t="n">
-        <v>4480.421015543157</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W25" t="n">
-        <v>4201.351351052032</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="X25" t="n">
-        <v>4201.351351052032</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="Y25" t="n">
-        <v>3976.615652440797</v>
+        <v>3565.989880074963</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2494.579294402201</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="27">
@@ -6309,19 +6311,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>524.2254458227151</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M27" t="n">
-        <v>524.2254458227151</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N27" t="n">
-        <v>524.2254458227151</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O27" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.3370701289063</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6418,16 +6420,16 @@
         <v>1254.571728532997</v>
       </c>
       <c r="V28" t="n">
-        <v>1194.186001765628</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="W28" t="n">
-        <v>915.1163372745027</v>
+        <v>975.5020640418711</v>
       </c>
       <c r="X28" t="n">
-        <v>676.772475134186</v>
+        <v>737.1582019015545</v>
       </c>
       <c r="Y28" t="n">
-        <v>452.0367765229507</v>
+        <v>737.1582019015545</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
         <v>490.5039577458317</v>
@@ -6491,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6552,7 +6554,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>418.9079176142731</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C31" t="n">
-        <v>247.8145451759896</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E31" t="n">
         <v>93.2436976906228</v>
@@ -6655,16 +6657,16 @@
         <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>1348.756849250995</v>
+        <v>1514.591461574399</v>
       </c>
       <c r="W31" t="n">
-        <v>1069.687184759869</v>
+        <v>1235.521797083273</v>
       </c>
       <c r="X31" t="n">
-        <v>831.3433226195527</v>
+        <v>997.1779349429565</v>
       </c>
       <c r="Y31" t="n">
-        <v>606.6076240083174</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="32">
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C33" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D33" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E33" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G33" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H33" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S33" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T33" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U33" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V33" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W33" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X33" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y33" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3303.879360348573</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C34" t="n">
-        <v>3132.785987910289</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D34" t="n">
-        <v>3132.785987910289</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>4390.520398086449</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T34" t="n">
-        <v>4228.544372554647</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U34" t="n">
-        <v>4228.544372554647</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V34" t="n">
-        <v>3954.658627494169</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W34" t="n">
-        <v>3954.658627494169</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X34" t="n">
-        <v>3716.314765353853</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="Y34" t="n">
-        <v>3491.579066742617</v>
+        <v>1312.634177375637</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C35" t="n">
-        <v>2102.237727455811</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D35" t="n">
-        <v>1697.773797548872</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E35" t="n">
-        <v>1283.433582065768</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F35" t="n">
-        <v>862.403170019456</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G35" t="n">
-        <v>453.6748859122881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H35" t="n">
-        <v>142.7663885400061</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="36">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.231502096085</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="C37" t="n">
-        <v>895.138129657802</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="D37" t="n">
-        <v>735.6434849807119</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="E37" t="n">
-        <v>574.7326698490315</v>
+        <v>3433.376951417116</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>3433.376951417116</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T37" t="n">
-        <v>1350.978107866783</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U37" t="n">
-        <v>1350.978107866783</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V37" t="n">
-        <v>1350.978107866783</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W37" t="n">
-        <v>1350.978107866783</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="X37" t="n">
-        <v>1350.978107866783</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="Y37" t="n">
-        <v>1253.93120849013</v>
+        <v>3594.287766548796</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7165,19 @@
         <v>452.2785793327262</v>
       </c>
       <c r="G38" t="n">
-        <v>93.2436976906228</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>141.3700819604442</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7254,16 +7256,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>1435.775802995229</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3773.892275351887</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C40" t="n">
-        <v>3602.798902913603</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D40" t="n">
-        <v>3443.304258236513</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E40" t="n">
-        <v>3282.393443104833</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>3282.393443104833</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>3282.393443104833</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W40" t="n">
-        <v>4424.671542497483</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X40" t="n">
-        <v>4186.327680357166</v>
+        <v>1384.298732171156</v>
       </c>
       <c r="Y40" t="n">
-        <v>3961.591981745931</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2023.719241343133</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C41" t="n">
-        <v>1613.594650656403</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1613.594650656403</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1199.254435173299</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>778.224023126987</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>369.4957390198192</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>312.7727131152915</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>312.7727131152915</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>312.7727131152915</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1037.789828503564</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>1762.806943891837</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2406.437800308942</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>2888.805436687295</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>2888.805436687295</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>2929.36208237686</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>2929.36208237686</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>2929.36208237686</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>2528.718684545813</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2433.940421007622</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>251.4000992101705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>251.4000992101705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>251.4000992101705</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M42" t="n">
-        <v>468.5089649372509</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N42" t="n">
-        <v>1193.526080325524</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O42" t="n">
-        <v>1193.526080325524</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P42" t="n">
-        <v>1755.231972814054</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>881.6680283599194</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="C43" t="n">
-        <v>710.5746559216359</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D43" t="n">
-        <v>551.0800112445459</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E43" t="n">
-        <v>390.1691961128653</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F43" t="n">
-        <v>225.5380702234566</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1587.986138268387</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>1348.437399245089</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U43" t="n">
-        <v>1348.437399245089</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V43" t="n">
-        <v>1348.437399245089</v>
+        <v>1187.723755216753</v>
       </c>
       <c r="W43" t="n">
-        <v>1069.367734753964</v>
+        <v>908.6540907256278</v>
       </c>
       <c r="X43" t="n">
-        <v>1069.367734753964</v>
+        <v>670.3102285853113</v>
       </c>
       <c r="Y43" t="n">
-        <v>1069.367734753964</v>
+        <v>445.574529974076</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1287.51597772431</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>877.39138703758</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D44" t="n">
-        <v>472.9274571306405</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E44" t="n">
-        <v>58.5872416475372</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F44" t="n">
-        <v>58.5872416475372</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>312.7727131152915</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>850.932214224331</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1563.523614036569</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2288.540729424842</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2888.805436687295</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2888.805436687295</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2888.805436687295</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2794.081007170961</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2571.87452311782</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>2314.81403137733</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>2314.81403137733</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>2314.81403137733</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>1914.170633546283</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>1513.233960494373</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>58.5872416475372</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>58.5872416475372</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M45" t="n">
-        <v>783.60435703581</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N45" t="n">
-        <v>839.4134544636129</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>1543.370545009507</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2105.076437498037</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1126.400686813865</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C46" t="n">
-        <v>955.3073143755814</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D46" t="n">
-        <v>817.3330748333003</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E46" t="n">
-        <v>656.4222597016197</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F46" t="n">
-        <v>491.791133812211</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G46" t="n">
-        <v>324.5407427377544</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>174.9332875432111</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U46" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V46" t="n">
-        <v>1314.100393207909</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W46" t="n">
-        <v>1314.100393207909</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X46" t="n">
-        <v>1314.100393207909</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="Y46" t="n">
-        <v>1314.100393207909</v>
+        <v>1343.572929820347</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>269.9369070685581</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>825.6307450512605</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>461.5915225678816</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>422.1224761037303</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>224.3898313030402</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,25 +8294,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>681.3167988054204</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>425.6143201009266</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>819.3353755045598</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>743.321953824879</v>
+        <v>642.4258250655928</v>
       </c>
       <c r="P8" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,28 +8534,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>885.6258490597294</v>
       </c>
       <c r="O9" t="n">
-        <v>429.3564034215989</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8696,22 +8698,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>264.8965524252774</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8768,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>176.7732988419764</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>723.8803540323523</v>
@@ -8778,13 +8780,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>86.34977678504856</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8933,19 +8935,19 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>421.4915643031404</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9003,25 +9005,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>694.8191058394765</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9243,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>381.4963798086763</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9419,7 +9421,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9477,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9729,7 +9731,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9957,22 +9959,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>491.4496229341746</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10200,10 +10202,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10440,7 +10442,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10902,19 +10904,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>285.4811293141939</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11060,28 +11062,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>580.8894000266952</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>276.8661683112259</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>358.2842513116329</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,22 +11305,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>699.2402778904104</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11378,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>109.5662190783993</v>
+        <v>71.42007065981008</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,13 +23314,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>370.9984002179802</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>82.6861730734062</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,13 +23551,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>370.9984002179802</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23732,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>42.06483528720054</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23783,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>36.46078111520842</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>35.83538122427987</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>11.01212863925514</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -23944,19 +23946,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23984,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>54.06597461814515</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>123.1404754186356</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24133,10 +24135,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>30.97764792246718</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>49.19646844041387</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24254,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>175.6206484531255</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>248.2640602371198</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24443,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>54.06597461814556</v>
       </c>
       <c r="D26" t="n">
-        <v>49.19646844041387</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24458,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>25.02143259810612</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24610,13 +24612,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>211.3650181101785</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24689,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>4.874559219806002</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24895,7 +24897,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>164.1762662001699</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>49.1964684404137</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>57.0666462400651</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>76.79698635658144</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>36.46078111520808</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>131.2867993712689</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -25378,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>126.4119112422364</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>49.19646844041381</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>37.84312462897442</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>41.140759232894</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>36.46078111520819</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>303.0968254185818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.296566873551825</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>109.5250784863441</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>182.6581649254823</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>49.19646844041398</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -25922,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>26.43728131980203</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>21.30520108346079</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>794514.0476264284</v>
+        <v>787886.4579968977</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>794514.0476264284</v>
+        <v>787886.4579968977</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>794514.0476264284</v>
+        <v>805321.1041002538</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>557551.3291580537</v>
+        <v>725100.9185583928</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>557551.3291580535</v>
+        <v>725100.9185583928</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>725100.9185583928</v>
+        <v>725100.9185583929</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>725100.9185583927</v>
+        <v>725100.9185583929</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>725100.9185583929</v>
+        <v>725100.9185583928</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>725100.9185583927</v>
+        <v>725100.9185583928</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>725100.9185583926</v>
+        <v>725100.9185583927</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>557551.3291580534</v>
+        <v>725100.9185583928</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>557551.3291580534</v>
+        <v>725100.9185583927</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390917.7432778969</v>
+        <v>390917.7432778967</v>
       </c>
       <c r="C2" t="n">
         <v>390917.7432778968</v>
@@ -26320,40 +26322,40 @@
         <v>390917.743277897</v>
       </c>
       <c r="E2" t="n">
-        <v>267285.0205987446</v>
+        <v>347578.401042113</v>
       </c>
       <c r="F2" t="n">
-        <v>267285.0205987446</v>
+        <v>347578.4010421128</v>
       </c>
       <c r="G2" t="n">
         <v>347578.4010421128</v>
       </c>
       <c r="H2" t="n">
-        <v>347578.401042113</v>
+        <v>347578.4010421128</v>
       </c>
       <c r="I2" t="n">
+        <v>347578.4010421129</v>
+      </c>
+      <c r="J2" t="n">
+        <v>347578.4010421127</v>
+      </c>
+      <c r="K2" t="n">
         <v>347578.4010421128</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>347578.4010421128</v>
-      </c>
-      <c r="K2" t="n">
-        <v>347578.401042113</v>
-      </c>
-      <c r="L2" t="n">
-        <v>347578.401042113</v>
       </c>
       <c r="M2" t="n">
         <v>347578.4010421128</v>
       </c>
       <c r="N2" t="n">
+        <v>347578.4010421129</v>
+      </c>
+      <c r="O2" t="n">
         <v>347578.4010421127</v>
       </c>
-      <c r="O2" t="n">
-        <v>267285.0205987446</v>
-      </c>
       <c r="P2" t="n">
-        <v>267285.0205987447</v>
+        <v>347578.4010421127</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163397.5044008658</v>
+        <v>193745.8212557931</v>
       </c>
       <c r="C4" t="n">
-        <v>163397.5044008658</v>
+        <v>193745.8212557931</v>
       </c>
       <c r="D4" t="n">
-        <v>163397.5044008658</v>
+        <v>113911.0406229377</v>
       </c>
       <c r="E4" t="n">
-        <v>45788.35845401311</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="F4" t="n">
-        <v>45788.35845401311</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="G4" t="n">
+        <v>59647.11115782197</v>
+      </c>
+      <c r="H4" t="n">
+        <v>59647.11115782197</v>
+      </c>
+      <c r="I4" t="n">
+        <v>59647.11115782197</v>
+      </c>
+      <c r="J4" t="n">
+        <v>59647.11115782198</v>
+      </c>
+      <c r="K4" t="n">
         <v>59647.11115782199</v>
       </c>
-      <c r="H4" t="n">
-        <v>59647.11115782198</v>
-      </c>
-      <c r="I4" t="n">
-        <v>59647.11115782198</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>59647.11115782197</v>
       </c>
-      <c r="K4" t="n">
-        <v>59647.11115782198</v>
-      </c>
-      <c r="L4" t="n">
-        <v>59647.11115782198</v>
-      </c>
       <c r="M4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="N4" t="n">
         <v>59647.11115782197</v>
       </c>
       <c r="O4" t="n">
-        <v>45788.35845401311</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="P4" t="n">
-        <v>45788.35845401311</v>
+        <v>59647.11115782198</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96057.8170581923</v>
+        <v>-43152.65294950805</v>
       </c>
       <c r="C6" t="n">
-        <v>149366.3352249027</v>
+        <v>131802.8569436062</v>
       </c>
       <c r="D6" t="n">
-        <v>149366.3352249029</v>
+        <v>6178.162389690478</v>
       </c>
       <c r="E6" t="n">
-        <v>176970.3584926033</v>
+        <v>190097.1254584834</v>
       </c>
       <c r="F6" t="n">
-        <v>176970.3584926032</v>
+        <v>217066.0796394175</v>
       </c>
       <c r="G6" t="n">
-        <v>98330.89520730359</v>
+        <v>217066.0796394175</v>
       </c>
       <c r="H6" t="n">
-        <v>217066.0796394177</v>
+        <v>217066.0796394175</v>
       </c>
       <c r="I6" t="n">
         <v>217066.0796394176</v>
       </c>
       <c r="J6" t="n">
-        <v>25453.57646906469</v>
+        <v>80471.27883352246</v>
       </c>
       <c r="K6" t="n">
-        <v>217066.0796394177</v>
+        <v>217066.0796394176</v>
       </c>
       <c r="L6" t="n">
-        <v>217066.0796394177</v>
+        <v>77066.76877466479</v>
       </c>
       <c r="M6" t="n">
+        <v>194556.8148653702</v>
+      </c>
+      <c r="N6" t="n">
+        <v>217066.0796394176</v>
+      </c>
+      <c r="O6" t="n">
         <v>217066.0796394175</v>
       </c>
-      <c r="N6" t="n">
-        <v>217066.0796394175</v>
-      </c>
-      <c r="O6" t="n">
-        <v>176970.3584926033</v>
-      </c>
       <c r="P6" t="n">
-        <v>176970.3584926033</v>
+        <v>217066.0796394174</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18.19522188379989</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>126.005319214999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -27442,7 +27444,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27543,19 +27545,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>204.7588700468178</v>
+        <v>14.30144802244541</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>365.6721757243774</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>13.9025554829305</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>133.777078907267</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>265.8001165366264</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>184.0419719736105</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>206.2656076687749</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>210.484523612961</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>180.8005173953409</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>405.4769987570326</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>130.7404680221561</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>623.7525150670029</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>726.0451510475143</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>650.1321781990958</v>
+        <v>549.2360494398097</v>
       </c>
       <c r="P8" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,28 +35254,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>832.4324556659794</v>
       </c>
       <c r="O9" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35416,22 +35418,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>171.7067767994943</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>120.947516057361</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>667.7658302215033</v>
@@ -35498,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35653,19 +35655,19 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>328.5792735465211</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>637.2548221010591</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>328.3029864149263</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36139,7 +36141,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36449,7 +36451,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>435.3350991233255</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36920,10 +36922,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37160,7 +37162,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>227.9168455757764</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>487.240036745811</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>219.3018845728085</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>305.0908579178829</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,22 +38025,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>606.3279871337911</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>56.37282568464934</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1176242.079644568</v>
+        <v>1174929.434188989</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029742</v>
+        <v>5301029.81102974</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789206</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>398.6248860420494</v>
+        <v>25.1379180117388</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>222.8518036106195</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>113.8067875933515</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
@@ -907,16 +907,16 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>51.14793220147189</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>242.5621214590676</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -1074,7 +1074,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>142.5359303380062</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>140.3188513312182</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1150,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>161.7257111612966</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>73.70455831056218</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>220.264774625403</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -1381,7 +1381,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>320.6751611476632</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>74.49801709606045</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -1593,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>205.2934183826711</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>165.9184445944652</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>50.92983226037159</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1830,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>368.1319780410717</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>154.5657585244569</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>161.3208240674651</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2095,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>362.5761659788956</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.73179601342657</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.68223391146829</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>120.01105690678</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>269.1075062414814</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2335,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>304.7162152260364</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -2529,7 +2529,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2538,13 +2538,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>28.0149076090946</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>81.93852244525458</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>351.957370161717</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2575,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>160.8012767319978</v>
+        <v>2.129193841209543</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>47.64512042712315</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>100.6427250977026</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>106.9706214097034</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.73179601342657</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>128.7560630900389</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>17.62297837539424</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.73179601342657</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>43.73227063629162</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>34.2910877924431</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -3486,13 +3486,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3514,16 +3514,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>406.1634062037608</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>47.64512042712315</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3666,7 +3666,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3675,13 +3675,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>98.19430687638533</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>13.88126300749902</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>369.6581867526364</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3757,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -3793,7 +3793,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>85.29970571609803</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>29.06736062834964</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6218091235291</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>356.8268763394486</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3994,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>218.1247287958589</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>159.3854280103019</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>31.75729477061447</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -4155,7 +4155,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.033101815613</v>
+        <v>492.6927300678241</v>
       </c>
       <c r="C2" t="n">
-        <v>1267.908511128883</v>
+        <v>82.56813938109417</v>
       </c>
       <c r="D2" t="n">
-        <v>863.4445812219433</v>
+        <v>82.14461351455877</v>
       </c>
       <c r="E2" t="n">
-        <v>449.10436573884</v>
+        <v>71.84480207185953</v>
       </c>
       <c r="F2" t="n">
         <v>46.45296569636579</v>
@@ -4336,19 +4336,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>733.4074053521598</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4369,13 +4369,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.254281480102</v>
+        <v>902.9139097323135</v>
       </c>
     </row>
     <row r="3">
@@ -4421,16 +4421,16 @@
         <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1207.22713412386</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="O3" t="n">
-        <v>1724.070068790185</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>800.5109188153651</v>
+        <v>478.5165913340464</v>
       </c>
       <c r="C4" t="n">
-        <v>800.5109188153651</v>
+        <v>478.5165913340464</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>319.0219466569564</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
         <v>158.1111315252759</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1074.396663875843</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U4" t="n">
-        <v>1074.396663875843</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V4" t="n">
-        <v>800.5109188153651</v>
+        <v>1110.886469069884</v>
       </c>
       <c r="W4" t="n">
-        <v>800.5109188153651</v>
+        <v>831.8168045787584</v>
       </c>
       <c r="X4" t="n">
-        <v>800.5109188153651</v>
+        <v>593.4729424384418</v>
       </c>
       <c r="Y4" t="n">
-        <v>800.5109188153651</v>
+        <v>478.5165913340464</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.9654716736151</v>
+        <v>411.6145042388096</v>
       </c>
       <c r="C5" t="n">
-        <v>108.8408809868852</v>
+        <v>405.5303175924838</v>
       </c>
       <c r="D5" t="n">
-        <v>108.4173551203498</v>
+        <v>405.1067917259484</v>
       </c>
       <c r="E5" t="n">
-        <v>98.11754367765053</v>
+        <v>394.8069802832491</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>377.8169722773407</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>373.129092210577</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>537.7254774811266</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>1054.568412147452</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147452</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1730.766722221062</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W5" t="n">
-        <v>1730.766722221062</v>
+        <v>1219.375350745852</v>
       </c>
       <c r="X5" t="n">
-        <v>1330.123324390014</v>
+        <v>818.7319529148049</v>
       </c>
       <c r="Y5" t="n">
-        <v>929.1866513381045</v>
+        <v>417.795279862895</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4655,19 +4655,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
+        <v>690.384199457534</v>
+      </c>
+      <c r="N6" t="n">
+        <v>690.384199457534</v>
+      </c>
+      <c r="O6" t="n">
         <v>1207.227134123859</v>
       </c>
-      <c r="N6" t="n">
-        <v>1207.227134123859</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1571.411346813777</v>
-      </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4767,10 +4767,10 @@
         <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2144.705157697622</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>1734.580567010892</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.116637103952</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>915.7764216208491</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>494.7460095745366</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>86.01772546736876</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>86.01772546736876</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
         <v>86.01772546736876</v>
@@ -4807,16 +4807,16 @@
         <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>624.1772265764083</v>
+        <v>524.2900591047148</v>
       </c>
       <c r="L8" t="n">
-        <v>1336.768626388646</v>
+        <v>1236.881458916953</v>
       </c>
       <c r="M8" t="n">
-        <v>2113.0872173804</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>2866.268234019018</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
         <v>3410.01192296443</v>
@@ -4834,22 +4834,22 @@
         <v>4300.886273368438</v>
       </c>
       <c r="T8" t="n">
-        <v>4078.679789315297</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="U8" t="n">
-        <v>3821.619297574807</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="V8" t="n">
-        <v>3471.781742911288</v>
+        <v>4137.526969165108</v>
       </c>
       <c r="W8" t="n">
-        <v>3088.021442046456</v>
+        <v>3753.766668300277</v>
       </c>
       <c r="X8" t="n">
-        <v>2687.378044215409</v>
+        <v>3353.12327046923</v>
       </c>
       <c r="Y8" t="n">
-        <v>2286.441371163499</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4892,19 +4892,19 @@
         <v>86.01772546736876</v>
       </c>
       <c r="M9" t="n">
-        <v>928.9948061619355</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="N9" t="n">
-        <v>1753.102937271255</v>
+        <v>866.8439382834442</v>
       </c>
       <c r="O9" t="n">
-        <v>1753.102937271255</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="P9" t="n">
-        <v>1753.102937271255</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2102.947401955239</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>253.2681165418253</v>
+        <v>742.1476836038314</v>
       </c>
       <c r="C10" t="n">
-        <v>253.2681165418253</v>
+        <v>571.0543111655479</v>
       </c>
       <c r="D10" t="n">
-        <v>253.2681165418253</v>
+        <v>411.559666488458</v>
       </c>
       <c r="E10" t="n">
-        <v>253.2681165418253</v>
+        <v>250.6488513567775</v>
       </c>
       <c r="F10" t="n">
-        <v>253.2681165418253</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
         <v>86.01772546736876</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1343.752135643529</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1343.752135643529</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1269.303086844981</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>995.4173417845029</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>716.3476772933773</v>
+        <v>1392.926950749428</v>
       </c>
       <c r="X10" t="n">
-        <v>478.0038151530607</v>
+        <v>1154.583088609111</v>
       </c>
       <c r="Y10" t="n">
-        <v>253.2681165418253</v>
+        <v>929.8473899978758</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2549.191389976085</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C11" t="n">
-        <v>2139.066799289355</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D11" t="n">
-        <v>1734.602869382415</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E11" t="n">
-        <v>1320.262653899312</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F11" t="n">
         <v>899.2322418529996</v>
@@ -5041,10 +5041,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>4144.752941388363</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W11" t="n">
-        <v>3760.992640523532</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X11" t="n">
-        <v>3360.349242692484</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y11" t="n">
-        <v>2959.412569640574</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="12">
@@ -5129,10 +5129,10 @@
         <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>1402.950983437843</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N12" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.2436976906228</v>
+        <v>643.6436162255084</v>
       </c>
       <c r="C13" t="n">
-        <v>93.2436976906228</v>
+        <v>643.6436162255084</v>
       </c>
       <c r="D13" t="n">
-        <v>93.2436976906228</v>
+        <v>643.6436162255084</v>
       </c>
       <c r="E13" t="n">
-        <v>93.2436976906228</v>
+        <v>482.7328010938278</v>
       </c>
       <c r="F13" t="n">
-        <v>93.2436976906228</v>
+        <v>318.1016752044191</v>
       </c>
       <c r="G13" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U13" t="n">
-        <v>828.6312213896092</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V13" t="n">
-        <v>554.7454763291312</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W13" t="n">
-        <v>275.6758118380055</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X13" t="n">
-        <v>93.2436976906228</v>
+        <v>831.3433226195527</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.2436976906228</v>
+        <v>831.3433226195527</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2549.191389976085</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.066799289355</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4494.590496051882</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V14" t="n">
-        <v>4144.752941388363</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W14" t="n">
-        <v>3760.992640523532</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X14" t="n">
-        <v>3360.349242692484</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y14" t="n">
-        <v>2959.412569640574</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>562.1177108836107</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N15" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.2436976906228</v>
+        <v>746.0706042949523</v>
       </c>
       <c r="C16" t="n">
-        <v>93.2436976906228</v>
+        <v>746.0706042949523</v>
       </c>
       <c r="D16" t="n">
-        <v>93.2436976906228</v>
+        <v>586.5759596178623</v>
       </c>
       <c r="E16" t="n">
-        <v>93.2436976906228</v>
+        <v>425.6651444861818</v>
       </c>
       <c r="F16" t="n">
-        <v>93.2436976906228</v>
+        <v>261.034018596773</v>
       </c>
       <c r="G16" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5463,25 +5463,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="W16" t="n">
-        <v>275.6758118380055</v>
+        <v>984.4144664352689</v>
       </c>
       <c r="X16" t="n">
-        <v>93.2436976906228</v>
+        <v>746.0706042949523</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.2436976906228</v>
+        <v>746.0706042949523</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1692.113136769081</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
         <v>1320.262653899312</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5600,22 +5600,22 @@
         <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>549.0499539559215</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M18" t="n">
-        <v>549.0499539559215</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N18" t="n">
-        <v>874.0699105066985</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O18" t="n">
-        <v>1578.027001052593</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1771.84401836374</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2121.688483047723</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>851.048725921115</v>
+        <v>906.7368574189954</v>
       </c>
       <c r="C19" t="n">
-        <v>679.9553534828315</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="D19" t="n">
-        <v>679.9553534828315</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E19" t="n">
-        <v>679.9553534828315</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F19" t="n">
-        <v>515.3242275934227</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V19" t="n">
-        <v>1263.484130926395</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W19" t="n">
-        <v>1263.484130926395</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X19" t="n">
-        <v>1263.484130926395</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="Y19" t="n">
-        <v>1038.748432315159</v>
+        <v>906.7368574189954</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2151.931129920876</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>1741.806539234146</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1337.342609327206</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E20" t="n">
-        <v>923.0023938441032</v>
+        <v>1277.772921285978</v>
       </c>
       <c r="F20" t="n">
-        <v>501.9719817977906</v>
+        <v>856.7425092396657</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4576.597211790305</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4354.390727737164</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4097.330235996674</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3747.492681333154</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3363.732380468323</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>2963.088982637275</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2562.152309585365</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5837,22 +5837,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3300.036378984746</v>
+        <v>639.9151332627582</v>
       </c>
       <c r="C22" t="n">
-        <v>3300.036378984746</v>
+        <v>518.69184345793</v>
       </c>
       <c r="D22" t="n">
-        <v>3300.036378984746</v>
+        <v>359.19719878084</v>
       </c>
       <c r="E22" t="n">
-        <v>3300.036378984746</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F22" t="n">
-        <v>3300.036378984746</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>4379.386737077264</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V22" t="n">
-        <v>4105.500992016786</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W22" t="n">
-        <v>3826.43132752566</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="X22" t="n">
-        <v>3588.087465385343</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="Y22" t="n">
-        <v>3363.351766774108</v>
+        <v>827.6148396568026</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2459.725286714852</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>2049.600696028122</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1645.136766121183</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1230.796550638079</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>809.7661385917668</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>401.0378544845989</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U23" t="n">
-        <v>4405.12439279065</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V23" t="n">
-        <v>4055.286838127131</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W23" t="n">
-        <v>3671.526537262299</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X23" t="n">
-        <v>3270.883139431251</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y23" t="n">
-        <v>2869.946466379341</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>2615.69568868064</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>2615.69568868064</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M24" t="n">
-        <v>3458.672769375206</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N24" t="n">
-        <v>4332.330861486824</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O24" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3565.989880074963</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="C25" t="n">
-        <v>3565.989880074963</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="D25" t="n">
-        <v>3565.989880074963</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="E25" t="n">
-        <v>3565.989880074963</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U25" t="n">
-        <v>3868.173511609275</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V25" t="n">
-        <v>3594.287766548796</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="W25" t="n">
-        <v>3565.989880074963</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="X25" t="n">
-        <v>3565.989880074963</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="Y25" t="n">
-        <v>3565.989880074963</v>
+        <v>711.5280310642931</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2494.579294402201</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6256,22 +6256,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4439.978400477999</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>4090.140845814479</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3706.380544949648</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>3305.7371471186</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2904.80047406669</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>537.5348450866911</v>
       </c>
       <c r="L27" t="n">
-        <v>423.0977207349383</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>1266.074801429505</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6411,25 +6411,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U28" t="n">
-        <v>1254.571728532997</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V28" t="n">
-        <v>1254.571728532997</v>
+        <v>837.543623783007</v>
       </c>
       <c r="W28" t="n">
-        <v>975.5020640418711</v>
+        <v>558.4739592918813</v>
       </c>
       <c r="X28" t="n">
-        <v>737.1582019015545</v>
+        <v>320.1300971515647</v>
       </c>
       <c r="Y28" t="n">
-        <v>737.1582019015545</v>
+        <v>95.39439854032941</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>141.3700819604442</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6493,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.7425299376769</v>
+        <v>362.153407045587</v>
       </c>
       <c r="C31" t="n">
-        <v>413.6491574993933</v>
+        <v>362.153407045587</v>
       </c>
       <c r="D31" t="n">
-        <v>254.1545128223033</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G31" t="n">
         <v>93.2436976906228</v>
@@ -6648,25 +6648,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V31" t="n">
-        <v>1514.591461574399</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W31" t="n">
-        <v>1235.521797083273</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="X31" t="n">
-        <v>997.1779349429565</v>
+        <v>362.153407045587</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.4422363317212</v>
+        <v>362.153407045587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2151.931129920876</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4576.597211790305</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4354.390727737164</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4097.330235996674</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V32" t="n">
-        <v>3747.492681333154</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3363.732380468323</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>2963.088982637275</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2562.152309585365</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>2615.69568868064</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>2615.69568868064</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M33" t="n">
-        <v>3458.672769375206</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N33" t="n">
-        <v>4332.330861486824</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O33" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6885,25 +6885,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T34" t="n">
-        <v>1537.369875986873</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U34" t="n">
-        <v>1537.369875986873</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.369875986873</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W34" t="n">
-        <v>1537.369875986873</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X34" t="n">
-        <v>1537.369875986873</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="Y34" t="n">
-        <v>1312.634177375637</v>
+        <v>257.8748235800315</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2151.931129920876</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1741.806539234146</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4576.597211790305</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4354.390727737164</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U35" t="n">
-        <v>4097.330235996674</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V35" t="n">
-        <v>3747.492681333154</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3363.732380468323</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>2963.088982637275</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2562.152309585365</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3594.287766548796</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>3594.287766548796</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3594.287766548796</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3433.376951417116</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3433.376951417116</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4390.520398086449</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T37" t="n">
-        <v>4150.971659063151</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U37" t="n">
-        <v>3868.173511609275</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V37" t="n">
-        <v>3594.287766548796</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W37" t="n">
-        <v>3594.287766548796</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="X37" t="n">
-        <v>3594.287766548796</v>
+        <v>362.153407045587</v>
       </c>
       <c r="Y37" t="n">
-        <v>3594.287766548796</v>
+        <v>137.4177084343517</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>452.2785793327262</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>141.3700819604442</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7210,16 +7210,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1182.57754799176</v>
+        <v>689.0651797120009</v>
       </c>
       <c r="C40" t="n">
-        <v>1011.484175553476</v>
+        <v>517.9718072737174</v>
       </c>
       <c r="D40" t="n">
-        <v>851.989530876386</v>
+        <v>517.9718072737174</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>357.0609921420369</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>192.4298662526282</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>192.4298662526282</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7365,19 +7365,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W40" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="X40" t="n">
-        <v>1384.298732171156</v>
+        <v>1101.500584717281</v>
       </c>
       <c r="Y40" t="n">
-        <v>1370.277254385804</v>
+        <v>876.7648861060453</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2139.066799289355</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H41" t="n">
         <v>179.5954603735497</v>
@@ -7441,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4440.742490420091</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M42" t="n">
-        <v>754.331869609911</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N42" t="n">
-        <v>1056.371818948615</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O42" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>1350.978107866783</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U43" t="n">
-        <v>1350.978107866783</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V43" t="n">
-        <v>1187.723755216753</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W43" t="n">
-        <v>908.6540907256278</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X43" t="n">
-        <v>670.3102285853113</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="Y43" t="n">
-        <v>445.574529974076</v>
+        <v>122.6046680222891</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1741.806539234146</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7681,19 +7681,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4084.369316387393</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>3734.531761723874</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="45">
@@ -7727,16 +7727,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M45" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
         <v>1228.182536368609</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1182.57754799176</v>
+        <v>601.6742641625859</v>
       </c>
       <c r="C46" t="n">
-        <v>1011.484175553476</v>
+        <v>601.6742641625859</v>
       </c>
       <c r="D46" t="n">
-        <v>851.989530876386</v>
+        <v>442.1796194854959</v>
       </c>
       <c r="E46" t="n">
-        <v>691.0787157447054</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F46" t="n">
-        <v>526.4475898552967</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7836,22 +7836,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>1343.572929820347</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X46" t="n">
-        <v>1343.572929820347</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="Y46" t="n">
-        <v>1343.572929820347</v>
+        <v>601.6742641625859</v>
       </c>
     </row>
   </sheetData>
@@ -7984,22 +7984,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>534.7878950544006</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>334.2508956958897</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8069,19 +8069,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491206</v>
       </c>
       <c r="P3" t="n">
-        <v>422.1224761037303</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
@@ -8230,13 +8230,13 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>535.5249675786654</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8303,22 +8303,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>425.6143201009266</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7318453389136</v>
+        <v>531.8357165796273</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
@@ -8467,7 +8467,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>642.4258250655928</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
         <v>628.1510783507341</v>
@@ -8540,22 +8540,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>885.6258490597294</v>
+        <v>841.906739672614</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8701,7 +8701,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8777,13 +8777,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N12" t="n">
-        <v>86.34977678504856</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -9005,22 +9005,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>531.1743980747688</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,25 +9248,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>381.4963798086763</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>77.22687637146549</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>517.4884687476416</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
@@ -9503,7 +9503,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,28 +9719,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629454</v>
+        <v>713.8858861212706</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>309.8442573638428</v>
       </c>
       <c r="L27" t="n">
-        <v>389.300405673794</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,28 +10430,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629454</v>
+        <v>713.8858861212706</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N42" t="n">
-        <v>358.2842513116329</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,19 +11375,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>71.42007065981008</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>96.14494677818607</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23424,16 +23424,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>91.07987006765156</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>88.57144222861982</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>114.6480549033404</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23737,10 +23737,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>42.06483528720054</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>11.01212863925514</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>61.16751755765782</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>42.06483528720048</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>49.19646844041357</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>123.1404754186356</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>49.37138180712068</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24141,13 +24141,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>137.0114616263631</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24375,10 +24375,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>248.2640602371198</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>140.5498191798683</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>54.06597461814556</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25.02143259810612</v>
+        <v>183.6935154888944</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -24612,13 +24612,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>37.84312462897442</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>57.25697313261651</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -24888,16 +24888,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>164.1762662001699</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>49.19646844041357</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.0666462400651</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>218.3374451435192</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>49.19646844041357</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>142.0904386938123</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -25320,19 +25320,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>131.2867993712689</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>10.65670172208848</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>37.84312462897442</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>49.91707376621258</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>156.7553487017543</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25797,7 +25797,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>109.5250784863441</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>49.19646844041398</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>36.36515802722613</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>26.43728131980203</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>127.5444122097493</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>725100.9185583928</v>
+        <v>725100.9185583927</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>725100.9185583929</v>
+        <v>725100.9185583928</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>725100.9185583928</v>
+        <v>725100.9185583929</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>725100.9185583929</v>
+        <v>725100.9185583928</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>725100.9185583927</v>
+        <v>725100.9185583929</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>725100.9185583928</v>
+        <v>725100.9185583929</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>725100.9185583928</v>
+        <v>725100.9185583927</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>725100.9185583927</v>
+        <v>725100.9185583926</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>390917.7432778968</v>
+      </c>
+      <c r="C2" t="n">
         <v>390917.7432778967</v>
-      </c>
-      <c r="C2" t="n">
-        <v>390917.7432778968</v>
       </c>
       <c r="D2" t="n">
         <v>390917.743277897</v>
       </c>
       <c r="E2" t="n">
-        <v>347578.401042113</v>
+        <v>347578.4010421128</v>
       </c>
       <c r="F2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="G2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="H2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="I2" t="n">
-        <v>347578.4010421129</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="J2" t="n">
         <v>347578.4010421127</v>
       </c>
       <c r="K2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="L2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="M2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="N2" t="n">
-        <v>347578.4010421129</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="O2" t="n">
         <v>347578.4010421127</v>
       </c>
       <c r="P2" t="n">
-        <v>347578.4010421127</v>
+        <v>347578.4010421126</v>
       </c>
     </row>
     <row r="3">
@@ -26426,7 +26426,7 @@
         <v>113911.0406229377</v>
       </c>
       <c r="E4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="F4" t="n">
         <v>59647.11115782197</v>
@@ -26441,10 +26441,10 @@
         <v>59647.11115782197</v>
       </c>
       <c r="J4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="K4" t="n">
-        <v>59647.11115782199</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="L4" t="n">
         <v>59647.11115782197</v>
@@ -26456,10 +26456,10 @@
         <v>59647.11115782197</v>
       </c>
       <c r="O4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="P4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43152.65294950805</v>
+        <v>-43152.65294950794</v>
       </c>
       <c r="C6" t="n">
-        <v>131802.8569436062</v>
+        <v>131802.8569436061</v>
       </c>
       <c r="D6" t="n">
-        <v>6178.162389690478</v>
+        <v>6178.162389690522</v>
       </c>
       <c r="E6" t="n">
-        <v>190097.1254584834</v>
+        <v>189916.5448658343</v>
       </c>
       <c r="F6" t="n">
-        <v>217066.0796394175</v>
+        <v>216885.4990467684</v>
       </c>
       <c r="G6" t="n">
-        <v>217066.0796394175</v>
+        <v>216885.4990467684</v>
       </c>
       <c r="H6" t="n">
-        <v>217066.0796394175</v>
+        <v>216885.4990467684</v>
       </c>
       <c r="I6" t="n">
-        <v>217066.0796394176</v>
+        <v>216885.4990467684</v>
       </c>
       <c r="J6" t="n">
-        <v>80471.27883352246</v>
+        <v>80290.69824087329</v>
       </c>
       <c r="K6" t="n">
-        <v>217066.0796394176</v>
+        <v>216885.4990467683</v>
       </c>
       <c r="L6" t="n">
-        <v>77066.76877466479</v>
+        <v>76886.18818201561</v>
       </c>
       <c r="M6" t="n">
-        <v>194556.8148653702</v>
+        <v>194376.2342727209</v>
       </c>
       <c r="N6" t="n">
-        <v>217066.0796394176</v>
+        <v>216885.4990467684</v>
       </c>
       <c r="O6" t="n">
-        <v>217066.0796394175</v>
+        <v>216885.4990467684</v>
       </c>
       <c r="P6" t="n">
-        <v>217066.0796394174</v>
+        <v>216885.4990467683</v>
       </c>
     </row>
   </sheetData>
@@ -27384,13 +27384,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>18.19522188379989</v>
+        <v>391.6821899141105</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27441,13 +27441,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,19 +27542,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>14.30144802244541</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>108.6815540317715</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27627,16 +27627,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>365.6721757243774</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>65.2372909394916</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>93.42449318090726</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>265.8001165366264</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>184.6134679555875</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>206.2656076687749</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>56.01419322081136</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34704,22 +34704,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>441.8756042977813</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34789,19 +34789,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>506.6900639491206</v>
+      </c>
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P3" t="n">
-        <v>367.8628411009266</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
@@ -34950,13 +34950,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35023,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>367.8628411009266</v>
-      </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>543.5954556656965</v>
+        <v>442.6993269064101</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
@@ -35187,7 +35187,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>549.2360494398097</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
         <v>534.50171506985</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>832.4324556659794</v>
+        <v>788.713346278864</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35421,7 +35421,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35497,13 +35497,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N12" t="n">
-        <v>33.15638339129857</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>473.6101143363514</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>328.3029864149263</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36141,10 +36141,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>461.3739449367926</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629454</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>254.0184745792274</v>
       </c>
       <c r="L27" t="n">
-        <v>333.1858818629449</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629454</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N42" t="n">
-        <v>305.0908579178829</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>18.22667726606008</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
